--- a/4. Data/R models/Error By Country/BVSP/BVSP_DM_training.xlsx
+++ b/4. Data/R models/Error By Country/BVSP/BVSP_DM_training.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Thesis Francisco Bettencourt\Tese Nov\4. Data\R models\Error By Country\BVSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FC694C-0726-4B41-9A39-E28748C0C6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1823E6E2-0586-49C1-969C-615248871B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -208,6 +208,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -217,15 +222,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Cor6" xfId="1" builtinId="50"/>
@@ -568,7 +568,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -631,13 +631,13 @@
       <c r="D4">
         <v>3.497190703916075E-6</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="4"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5">
@@ -652,27 +652,27 @@
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="J5" s="5" t="s">
+      <c r="I5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I6" s="6"/>
+      <c r="H6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3"/>
       <c r="J6" s="8">
         <v>0.1034264064602365</v>
       </c>
@@ -684,10 +684,10 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I7" s="6"/>
+      <c r="I7" s="3"/>
       <c r="J7" s="9"/>
       <c r="K7" s="8">
         <v>1.148518092267883E-13</v>
@@ -697,10 +697,10 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I8" s="6"/>
+      <c r="I8" s="3"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c r="L8" s="8">
@@ -708,10 +708,10 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="7"/>
+      <c r="I9" s="4"/>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
       <c r="L9" s="11"/>
